--- a/biology/Biochimie/Orientine/Orientine.xlsx
+++ b/biology/Biochimie/Orientine/Orientine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'orientine est un composé chimique de la famille des flavones. C'est plus précisément un hétéroside, le 8-C-glucoside d'une flavone, la lutéoline, présent notamment dans la passiflore[2], l'açaí (Euterpe oleracea), l'adonis de printemps (Adonis vernalis) et le yopo (Anadenanthera peregrina). On a aussi relevé la présence d'orientine dans les millets[3] et les feuilles de bambou noir (Phyllostachys nigra)[4].
+L'orientine est un composé chimique de la famille des flavones. C'est plus précisément un hétéroside, le 8-C-glucoside d'une flavone, la lutéoline, présent notamment dans la passiflore, l'açaí (Euterpe oleracea), l'adonis de printemps (Adonis vernalis) et le yopo (Anadenanthera peregrina). On a aussi relevé la présence d'orientine dans les millets et les feuilles de bambou noir (Phyllostachys nigra).
 </t>
         </is>
       </c>
